--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4175777.24724206</v>
+        <v>4179327.807029455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256416</v>
+        <v>6239134.533256412</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069182</v>
+        <v>840694.9721069185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>165.0044438743486</v>
+        <v>242.0357154547281</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
-        <v>30.54110646053108</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>28.49676573530186</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>57.29842298468323</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>132.997194893274</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>149.1149290617441</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T12" t="n">
         <v>190.9292778896378</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>86.83849778655458</v>
       </c>
       <c r="U13" t="n">
-        <v>58.87559016473316</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T14" t="n">
         <v>204.3497241367009</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T15" t="n">
         <v>190.9292778896378</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.81869974802235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>93.19469826741735</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2142514133935</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U17" t="n">
         <v>251.0030623803221</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T18" t="n">
         <v>190.9292778896378</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.2987457942062</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.4928132020625</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.0203559212046</v>
+        <v>411.0203559212044</v>
       </c>
       <c r="H20" t="n">
         <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T20" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
         <v>251.0030623803221</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T21" t="n">
         <v>190.9292778896378</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4482050673217</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>28.68313558002603</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T23" t="n">
         <v>204.3497241367009</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T24" t="n">
         <v>190.9292778896378</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>172.4702518430031</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>197.7300987434855</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.0203559212048</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T26" t="n">
         <v>204.3497241367009</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T27" t="n">
         <v>190.9292778896378</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.64400963880211</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>28.68313558002671</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T29" t="n">
         <v>204.3497241367009</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T30" t="n">
         <v>190.9292778896378</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6178152390048</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -3006,7 +3006,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>135.2009709794777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T32" t="n">
         <v>204.3497241367009</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T33" t="n">
         <v>190.9292778896378</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>28.68313558002671</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>64.21168800535585</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.0203559212046</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U35" t="n">
         <v>251.0030623803221</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T36" t="n">
         <v>190.9292778896378</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>159.6461437356195</v>
+        <v>93.19469826741735</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.0203559212044</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H38" t="n">
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T39" t="n">
         <v>190.9292778896378</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S40" t="n">
-        <v>167.8005683399081</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>194.8405759668418</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040316</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T42" t="n">
         <v>190.9292778896378</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.86931745267268</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>67.57137291817915</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040317</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145558</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030166</v>
+        <v>10.50839692030169</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>129.1237215282626</v>
+        <v>129.1237215282627</v>
       </c>
       <c r="T45" t="n">
         <v>190.9292778896378</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>119.7401400319043</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.780595683986</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.818078743575</v>
+        <v>1666.627443976281</v>
       </c>
       <c r="D2" t="n">
-        <v>1588.818078743575</v>
+        <v>1666.627443976281</v>
       </c>
       <c r="E2" t="n">
-        <v>1203.02982614533</v>
+        <v>1280.839191378037</v>
       </c>
       <c r="F2" t="n">
-        <v>792.0439213557229</v>
+        <v>869.8532865884295</v>
       </c>
       <c r="G2" t="n">
-        <v>374.0801132539098</v>
+        <v>451.8894784866163</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2344.380435748108</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="3">
@@ -4421,25 +4421,25 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>667.8624625746712</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1314.38774159731</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.38774159731</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>956.12204299056</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>570.3337903923157</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>563.3882896431122</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2639.271896084199</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2639.271896084199</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2308.209008740628</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1314.38774159731</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="6">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1341.294330781294</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>972.3318138408822</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>614.0661152341316</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2491.499261082307</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2118.033502821228</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1727.894170845416</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H11" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I11" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K11" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1935.127558962001</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.02943534674</v>
+        <v>2504.816728742197</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3034.172689002973</v>
       </c>
       <c r="O11" t="n">
         <v>3520.693250262004</v>
@@ -5120,19 +5120,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936093</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740664</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439725</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.6538521431477</v>
+        <v>582.5180172137391</v>
       </c>
       <c r="C13" t="n">
-        <v>95.71766921524075</v>
+        <v>413.5818342858322</v>
       </c>
       <c r="D13" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E13" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F13" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
         <v>95.71766921524075</v>
@@ -5202,49 +5202,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O13" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P13" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q13" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S13" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.656398353472</v>
+        <v>1825.362995642817</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.186105257782</v>
+        <v>1536.257691184844</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.501617051895</v>
+        <v>1281.573202978957</v>
       </c>
       <c r="W13" t="n">
-        <v>895.0844470149349</v>
+        <v>992.1560329419962</v>
       </c>
       <c r="X13" t="n">
-        <v>667.0948961169175</v>
+        <v>764.1664820439788</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3023169733874</v>
+        <v>764.1664820439788</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K14" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557056</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M14" t="n">
-        <v>2038.02943534674</v>
+        <v>2136.902529248587</v>
       </c>
       <c r="N14" t="n">
-        <v>3000.35885077538</v>
+        <v>3099.231944677227</v>
       </c>
       <c r="O14" t="n">
-        <v>3520.693250262004</v>
+        <v>3585.752505936258</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4285.066269150655</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5357,19 +5357,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439725</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G16" t="n">
         <v>95.71766921524075</v>
@@ -5439,49 +5439,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O16" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P16" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q16" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R16" t="n">
         <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1727.102752446104</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1727.102752446104</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1437.997447988131</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190239</v>
+        <v>1183.312959782244</v>
       </c>
       <c r="W16" t="n">
-        <v>573.6095969820633</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X16" t="n">
-        <v>345.620046084046</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.8274669405158</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K17" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1611.438070502395</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M17" t="n">
-        <v>2127.824549292078</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N17" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O17" t="n">
         <v>3520.693250262004</v>
@@ -5594,25 +5594,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418658</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740671</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
         <v>2587.498588679581</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.71766921524075</v>
+        <v>631.0895572303017</v>
       </c>
       <c r="C19" t="n">
-        <v>95.71766921524075</v>
+        <v>491.3938544078712</v>
       </c>
       <c r="D19" t="n">
-        <v>95.71766921524075</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="E19" t="n">
-        <v>95.71766921524075</v>
+        <v>341.2772149955355</v>
       </c>
       <c r="F19" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="G19" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I19" t="n">
         <v>95.71766921524075</v>
@@ -5676,49 +5676,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O19" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P19" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q19" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S19" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.656398353472</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.551093895499</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V19" t="n">
-        <v>954.8666056896124</v>
+        <v>1369.28885730881</v>
       </c>
       <c r="W19" t="n">
-        <v>665.4494356526518</v>
+        <v>1079.871687271849</v>
       </c>
       <c r="X19" t="n">
-        <v>437.4598847546345</v>
+        <v>851.8821363738318</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.3661340454805</v>
+        <v>631.0895572303017</v>
       </c>
     </row>
     <row r="20">
@@ -5737,43 +5737,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F20" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K20" t="n">
-        <v>597.708085861203</v>
+        <v>597.7080858612026</v>
       </c>
       <c r="L20" t="n">
-        <v>1446.817951496196</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M20" t="n">
-        <v>2408.222828443784</v>
+        <v>2408.222828443782</v>
       </c>
       <c r="N20" t="n">
-        <v>3370.552243872424</v>
+        <v>3370.552243872422</v>
       </c>
       <c r="O20" t="n">
-        <v>4114.52506777933</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P20" t="n">
-        <v>4495.258109903959</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926293</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5788,13 +5788,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5831,19 +5831,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740664</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439725</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.71766921524075</v>
+        <v>709.5735326357868</v>
       </c>
       <c r="C22" t="n">
-        <v>95.71766921524075</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D22" t="n">
-        <v>95.71766921524075</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F22" t="n">
         <v>95.71766921524075</v>
@@ -5913,49 +5913,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O22" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P22" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q22" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S22" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.355226787849</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.249922329876</v>
+        <v>1884.105785750422</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.565434123989</v>
+        <v>1629.421297544535</v>
       </c>
       <c r="W22" t="n">
-        <v>726.1482640870279</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X22" t="n">
-        <v>498.1587131890105</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.3661340454805</v>
+        <v>891.2219974660266</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K23" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1935.127558962002</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M23" t="n">
-        <v>2451.514037751685</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N23" t="n">
-        <v>2980.869998012462</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O23" t="n">
         <v>3520.693250262004</v>
@@ -6068,19 +6068,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439725</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>492.417000492354</v>
+        <v>658.8659454798975</v>
       </c>
       <c r="C25" t="n">
-        <v>492.417000492354</v>
+        <v>658.8659454798975</v>
       </c>
       <c r="D25" t="n">
-        <v>342.3003610800183</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E25" t="n">
-        <v>194.3872674976251</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F25" t="n">
-        <v>194.3872674976251</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G25" t="n">
-        <v>194.3872674976251</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H25" t="n">
-        <v>194.3872674976251</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6150,49 +6150,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O25" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P25" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q25" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.613957833929</v>
+        <v>1647.026435703089</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353472</v>
+        <v>1647.026435703089</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.551093895499</v>
+        <v>1357.921131245115</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.823721427332</v>
+        <v>1357.921131245115</v>
       </c>
       <c r="W25" t="n">
-        <v>720.4065513903713</v>
+        <v>1068.503961208155</v>
       </c>
       <c r="X25" t="n">
-        <v>492.417000492354</v>
+        <v>840.5144103101372</v>
       </c>
       <c r="Y25" t="n">
-        <v>492.417000492354</v>
+        <v>840.5144103101372</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.33139720366</v>
+        <v>855.3313972036601</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K26" t="n">
-        <v>918.6120443066561</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L26" t="n">
-        <v>1354.237307536703</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M26" t="n">
-        <v>2315.642184484291</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N26" t="n">
-        <v>3277.971599912931</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O26" t="n">
-        <v>3764.492161171963</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
         <v>4220.007013476401</v>
@@ -6305,19 +6305,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439725</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>709.5735326357868</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="C28" t="n">
-        <v>540.6373497078799</v>
+        <v>268.5237018267269</v>
       </c>
       <c r="D28" t="n">
-        <v>390.5207102955442</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E28" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
         <v>95.71766921524075</v>
@@ -6387,49 +6387,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O28" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P28" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q28" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T28" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1884.105785750422</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>1629.421297544535</v>
+        <v>954.8666056896117</v>
       </c>
       <c r="W28" t="n">
-        <v>1340.004127507574</v>
+        <v>665.4494356526511</v>
       </c>
       <c r="X28" t="n">
-        <v>1112.014576609557</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="Y28" t="n">
-        <v>891.2219974660266</v>
+        <v>437.4598847546338</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K29" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1611.438070502395</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M29" t="n">
-        <v>2127.824549292078</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N29" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O29" t="n">
         <v>3520.693250262004</v>
@@ -6542,19 +6542,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439725</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.0083916788819</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C31" t="n">
-        <v>263.0083916788819</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D31" t="n">
-        <v>263.0083916788819</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E31" t="n">
-        <v>263.0083916788819</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F31" t="n">
-        <v>263.0083916788819</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G31" t="n">
         <v>95.71766921524075</v>
@@ -6624,49 +6624,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N31" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P31" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.551093895499</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V31" t="n">
-        <v>954.8666056896124</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526518</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X31" t="n">
-        <v>665.4494356526518</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.6568565091217</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C32" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E32" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F32" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G32" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K32" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1611.438070502395</v>
+        <v>1521.642956557055</v>
       </c>
       <c r="M32" t="n">
-        <v>2127.824549292078</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552854</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O32" t="n">
         <v>3520.693250262004</v>
@@ -6733,19 +6733,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V32" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W32" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X32" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y32" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418658</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740671</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.5735326357868</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="C34" t="n">
-        <v>540.6373497078799</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="D34" t="n">
-        <v>390.5207102955442</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E34" t="n">
-        <v>242.6076167131511</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F34" t="n">
-        <v>95.71766921524075</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G34" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H34" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976252</v>
       </c>
       <c r="I34" t="n">
         <v>95.71766921524075</v>
@@ -6861,49 +6861,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P34" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R34" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S34" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T34" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U34" t="n">
-        <v>1884.105785750422</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V34" t="n">
-        <v>1629.421297544535</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W34" t="n">
-        <v>1340.004127507574</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="X34" t="n">
-        <v>1112.014576609557</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.2219974660266</v>
+        <v>508.7493060675617</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E35" t="n">
         <v>1266.317301993267</v>
@@ -6928,28 +6928,28 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K35" t="n">
         <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1543.411851794608</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.816728742196</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N35" t="n">
-        <v>3034.172689002972</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O35" t="n">
         <v>3520.693250262004</v>
@@ -6973,13 +6973,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y35" t="n">
         <v>2765.933610202796</v>
@@ -7016,19 +7016,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O36" t="n">
         <v>2136.002693439725</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G37" t="n">
         <v>95.71766921524075</v>
@@ -7098,49 +7098,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O37" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P37" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q37" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R37" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.613957833929</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.355226787849</v>
+        <v>1727.102752446104</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.249922329876</v>
+        <v>1437.997447988131</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.565434123989</v>
+        <v>1183.312959782244</v>
       </c>
       <c r="W37" t="n">
-        <v>726.1482640870279</v>
+        <v>893.8957897452837</v>
       </c>
       <c r="X37" t="n">
-        <v>498.1587131890105</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.3661340454805</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K38" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1767.721909941649</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M38" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N38" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O38" t="n">
-        <v>4109.950544869122</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4490.683586993751</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4728.425499016085</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7253,19 +7253,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439725</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.9379633372129</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C40" t="n">
-        <v>341.001780409306</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D40" t="n">
-        <v>341.001780409306</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E40" t="n">
-        <v>341.001780409306</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F40" t="n">
-        <v>341.001780409306</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7335,49 +7335,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O40" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P40" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q40" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R40" t="n">
         <v>1821.238811302082</v>
       </c>
       <c r="S40" t="n">
-        <v>1651.743287726418</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.785728245961</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U40" t="n">
-        <v>1429.785728245961</v>
+        <v>1210.007897090114</v>
       </c>
       <c r="V40" t="n">
-        <v>1429.785728245961</v>
+        <v>955.3234088842269</v>
       </c>
       <c r="W40" t="n">
-        <v>1140.368558209</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="X40" t="n">
-        <v>912.3790073109827</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="Y40" t="n">
-        <v>691.5864281674526</v>
+        <v>445.1136597037362</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H41" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I41" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139483</v>
       </c>
       <c r="K41" t="n">
-        <v>918.6120443066561</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1767.721909941649</v>
+        <v>1611.438070502396</v>
       </c>
       <c r="M41" t="n">
-        <v>2284.108388731333</v>
+        <v>2127.824549292079</v>
       </c>
       <c r="N41" t="n">
-        <v>3246.437804159973</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O41" t="n">
-        <v>4109.950544869122</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4490.683586993751</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4728.425499016085</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,19 +7490,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629246</v>
+        <v>258.3150913629257</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111811</v>
+        <v>488.143009511182</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433823</v>
+        <v>843.497549143383</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075618</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890736</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439725</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>449.4410924000626</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>280.5049094721558</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5049094721558</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>280.5049094721558</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>280.5049094721558</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>112.7573838139</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
         <v>95.71766921524075</v>
@@ -7572,49 +7572,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P43" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T43" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682883</v>
       </c>
       <c r="U43" t="n">
-        <v>1623.973345514697</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V43" t="n">
-        <v>1369.288857308811</v>
+        <v>863.0267670190232</v>
       </c>
       <c r="W43" t="n">
-        <v>1079.87168727185</v>
+        <v>573.6095969820626</v>
       </c>
       <c r="X43" t="n">
-        <v>851.8821363738325</v>
+        <v>345.6200460840453</v>
       </c>
       <c r="Y43" t="n">
-        <v>631.0895572303024</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066557</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557056</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M44" t="n">
-        <v>2038.02943534674</v>
+        <v>2288.682911641542</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552854</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,19 +7727,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936092</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418654</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740664</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106302</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890736</v>
+        <v>1663.61554392142</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439725</v>
@@ -7809,49 +7809,49 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738839</v>
+        <v>336.6421130738837</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150416</v>
+        <v>646.6900875150411</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239498</v>
+        <v>983.9813277239493</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545534</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O46" t="n">
-        <v>1611.825859961355</v>
+        <v>1611.825859961354</v>
       </c>
       <c r="P46" t="n">
         <v>1839.135983203279</v>
       </c>
       <c r="Q46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1913.07864997267</v>
       </c>
       <c r="S46" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.613957833928</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.355226787849</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.249922329876</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.565434123989</v>
+        <v>954.8666056896117</v>
       </c>
       <c r="W46" t="n">
-        <v>726.1482640870279</v>
+        <v>665.4494356526511</v>
       </c>
       <c r="X46" t="n">
-        <v>498.1587131890105</v>
+        <v>437.4598847546338</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.3661340454805</v>
+        <v>216.6673056111037</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>53.84110201061856</v>
       </c>
       <c r="N11" t="n">
-        <v>90.70213529832199</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>74.60209794880342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>74.60209794880495</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>99.87181202206864</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>34.15539214908347</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70213529832193</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>260.0527905534082</v>
+        <v>260.0527905534112</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>74.60209794880467</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>53.84110201061708</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>259.7987504703977</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>75.53718199980716</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>90.70213529832193</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70213529832193</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>90.70213529832358</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.6020979488037</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>21.98878306823462</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>4.620730212331381</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832387</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>4.620730212331381</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880339</v>
+        <v>74.60209794880461</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.620730212333342</v>
       </c>
       <c r="N44" t="n">
-        <v>90.70213529832199</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>74.60209794880484</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990466</v>
+        <v>3.419393410990551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>132.8994860990975</v>
       </c>
       <c r="U13" t="n">
-        <v>227.3386612486603</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>97.3453469499369</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.94807530442168</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.09184015003234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0700504016732</v>
@@ -24147,7 +24147,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S22" t="n">
-        <v>60.09184015003257</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>257.5311158333674</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.06979337435115</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>54.40754458034246</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.9714633794102</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
@@ -24621,7 +24621,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>257.5311158333668</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4522351626683871</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>151.0132804339158</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>257.5311158333668</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>161.4979673836813</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>60.0918401500326</v>
+        <v>126.5432856182348</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.73947687744615</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>91.37367544655172</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>128.2790503298913</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>151.0132804339156</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>60.09184015003301</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956055</v>
+        <v>97.68290229956058</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>90.9214402838827</v>
       </c>
       <c r="S46" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613848.369191632</v>
+        <v>613848.3691916319</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613848.3691916319</v>
+        <v>613848.369191632</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
+        <v>793018.6041273862</v>
+      </c>
+      <c r="F2" t="n">
         <v>793018.604127386</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>793018.6041273866</v>
+      </c>
+      <c r="H2" t="n">
+        <v>793018.604127386</v>
+      </c>
+      <c r="I2" t="n">
         <v>793018.6041273861</v>
       </c>
-      <c r="G2" t="n">
-        <v>793018.6041273859</v>
-      </c>
-      <c r="H2" t="n">
-        <v>793018.6041273858</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>793018.6041273861</v>
+      </c>
+      <c r="K2" t="n">
+        <v>793018.6041273861</v>
+      </c>
+      <c r="L2" t="n">
+        <v>793018.6041273861</v>
+      </c>
+      <c r="M2" t="n">
+        <v>793018.6041273861</v>
+      </c>
+      <c r="N2" t="n">
+        <v>793018.6041273861</v>
+      </c>
+      <c r="O2" t="n">
+        <v>793018.6041273862</v>
+      </c>
+      <c r="P2" t="n">
         <v>793018.604127386</v>
-      </c>
-      <c r="J2" t="n">
-        <v>793018.6041273865</v>
-      </c>
-      <c r="K2" t="n">
-        <v>793018.6041273859</v>
-      </c>
-      <c r="L2" t="n">
-        <v>793018.604127386</v>
-      </c>
-      <c r="M2" t="n">
-        <v>793018.6041273859</v>
-      </c>
-      <c r="N2" t="n">
-        <v>793018.6041273859</v>
-      </c>
-      <c r="O2" t="n">
-        <v>793018.6041273857</v>
-      </c>
-      <c r="P2" t="n">
-        <v>793018.6041273859</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518282</v>
+        <v>708251.0967518279</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="F4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.2424165932</v>
       </c>
       <c r="G4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659327</v>
       </c>
       <c r="H4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659325</v>
       </c>
       <c r="I4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="J4" t="n">
-        <v>19876.24241659321</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="L4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="M4" t="n">
-        <v>19876.24241659316</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="N4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="O4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659319</v>
       </c>
       <c r="P4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.2424165932</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079881</v>
+        <v>-35133.87427079858</v>
       </c>
       <c r="C6" t="n">
         <v>554834.0049437456</v>
       </c>
       <c r="D6" t="n">
-        <v>554834.0049437457</v>
+        <v>554834.0049437458</v>
       </c>
       <c r="E6" t="n">
-        <v>-31777.02757652701</v>
+        <v>-31146.50634744621</v>
       </c>
       <c r="F6" t="n">
-        <v>676474.0691753014</v>
+        <v>677104.5904043813</v>
       </c>
       <c r="G6" t="n">
-        <v>676474.0691753011</v>
+        <v>677104.5904043819</v>
       </c>
       <c r="H6" t="n">
-        <v>676474.069175301</v>
+        <v>677104.5904043813</v>
       </c>
       <c r="I6" t="n">
-        <v>676474.0691753012</v>
+        <v>677104.5904043814</v>
       </c>
       <c r="J6" t="n">
-        <v>500050.8499827086</v>
+        <v>500681.3712117885</v>
       </c>
       <c r="K6" t="n">
-        <v>676474.0691753011</v>
+        <v>677104.5904043814</v>
       </c>
       <c r="L6" t="n">
-        <v>676474.0691753012</v>
+        <v>677104.5904043814</v>
       </c>
       <c r="M6" t="n">
-        <v>546343.8292058917</v>
+        <v>546974.3504349721</v>
       </c>
       <c r="N6" t="n">
-        <v>676474.0691753011</v>
+        <v>677104.5904043814</v>
       </c>
       <c r="O6" t="n">
-        <v>676474.0691753009</v>
+        <v>677104.5904043816</v>
       </c>
       <c r="P6" t="n">
-        <v>676474.0691753011</v>
+        <v>677104.5904043813</v>
       </c>
     </row>
   </sheetData>
@@ -26700,25 +26700,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490194</v>
+        <v>1065.242421490193</v>
       </c>
     </row>
     <row r="4">
@@ -26919,10 +26919,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.498757273107</v>
+        <v>687.4987572731065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>158.9183288900086</v>
+        <v>81.88705730962909</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
-        <v>255.9818918760599</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>385.2874042854932</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>159.1498973729746</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13.43676775329513</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>65.60828460674293</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>200.1260396556689</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I11" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J11" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R11" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S11" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T11" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I12" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K12" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L12" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U12" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K13" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N13" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P13" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q13" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I14" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J14" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R14" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S14" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T14" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I15" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J15" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K15" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L15" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U15" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N16" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P16" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q16" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I17" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J17" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R17" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S17" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T17" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I18" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J18" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K18" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L18" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U18" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K19" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N19" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P19" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q19" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I20" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J20" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R20" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S20" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T20" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I21" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J21" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K21" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L21" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U21" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K22" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N22" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P22" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q22" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I23" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J23" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R23" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S23" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T23" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I24" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J24" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K24" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L24" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U24" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K25" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N25" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P25" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q25" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I26" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J26" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R26" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S26" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T26" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I27" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J27" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K27" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L27" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U27" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K28" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N28" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P28" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q28" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I29" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J29" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R29" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S29" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T29" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I30" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J30" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K30" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L30" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U30" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K31" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N31" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P31" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q31" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I32" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J32" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R32" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S32" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T32" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I33" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J33" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K33" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L33" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U33" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K34" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N34" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P34" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q34" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I35" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J35" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R35" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S35" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T35" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I36" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J36" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K36" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L36" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U36" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K37" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N37" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P37" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q37" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I38" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J38" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R38" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S38" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T38" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I39" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J39" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K39" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L39" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U39" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K40" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N40" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P40" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q40" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I41" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J41" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R41" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S41" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T41" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I42" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J42" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K42" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L42" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U42" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K43" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N43" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P43" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q43" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930424</v>
+        <v>4.282381593930422</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883996</v>
+        <v>43.85694049883995</v>
       </c>
       <c r="I44" t="n">
-        <v>165.0965164000028</v>
+        <v>165.0965164000027</v>
       </c>
       <c r="J44" t="n">
-        <v>363.4617848078526</v>
+        <v>363.4617848078525</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789276</v>
+        <v>544.7349976789274</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841759</v>
+        <v>675.7919333841756</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552361</v>
+        <v>751.9487370552357</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589909</v>
+        <v>764.1160537589906</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843452</v>
+        <v>721.5331217843449</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841878</v>
+        <v>615.8118261841876</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515544</v>
+        <v>462.4490353515542</v>
       </c>
       <c r="R44" t="n">
-        <v>269.0031527997322</v>
+        <v>269.0031527997321</v>
       </c>
       <c r="S44" t="n">
-        <v>97.58477057168963</v>
+        <v>97.58477057168959</v>
       </c>
       <c r="T44" t="n">
-        <v>18.74612542743044</v>
+        <v>18.74612542743043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3425905275144338</v>
+        <v>0.3425905275144337</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>2.291276151884567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.1289038879378</v>
+        <v>22.12890388793779</v>
       </c>
       <c r="I45" t="n">
-        <v>78.88823593111341</v>
+        <v>78.88823593111339</v>
       </c>
       <c r="J45" t="n">
-        <v>216.4753490690591</v>
+        <v>216.475349069059</v>
       </c>
       <c r="K45" t="n">
-        <v>369.9908512453251</v>
+        <v>369.990851245325</v>
       </c>
       <c r="L45" t="n">
-        <v>497.4983592063401</v>
+        <v>497.4983592063398</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121554</v>
+        <v>580.5571197121552</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693113</v>
+        <v>595.9227391693111</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828164</v>
+        <v>545.1528833828162</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418873</v>
+        <v>437.5332504418872</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967038</v>
+        <v>292.4793908967036</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529735</v>
+        <v>142.2601105529734</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557517</v>
+        <v>42.55944957557514</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183845</v>
+        <v>9.235450805183842</v>
       </c>
       <c r="U45" t="n">
-        <v>0.150741852097669</v>
+        <v>0.1507418520976689</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785595</v>
+        <v>1.920928956785594</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769773</v>
+        <v>57.7675726276977</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447416</v>
+        <v>135.8096772447415</v>
       </c>
       <c r="K46" t="n">
-        <v>223.1770187974536</v>
+        <v>223.1770187974535</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024693</v>
+        <v>285.5897469024692</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714001</v>
+        <v>301.1143454714</v>
       </c>
       <c r="N46" t="n">
-        <v>293.9545193597449</v>
+        <v>293.9545193597448</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463859</v>
+        <v>271.5145765463857</v>
       </c>
       <c r="P46" t="n">
-        <v>232.3276258279595</v>
+        <v>232.3276258279594</v>
       </c>
       <c r="Q46" t="n">
         <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.37195109328682</v>
+        <v>86.37195109328678</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961804</v>
+        <v>33.47655281961802</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629357</v>
+        <v>8.207605542629354</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279633</v>
+        <v>575.4436058385816</v>
       </c>
       <c r="N11" t="n">
-        <v>625.405125460722</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R11" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239243</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K12" t="n">
-        <v>306.7515102197696</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M12" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N12" t="n">
-        <v>464.581027085978</v>
+        <v>539.1831250347827</v>
       </c>
       <c r="O12" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P12" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L13" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N13" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O13" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P13" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141886</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279633</v>
+        <v>621.4743158500316</v>
       </c>
       <c r="N14" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O14" t="n">
-        <v>525.5903025117419</v>
+        <v>491.4349103626581</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R14" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K15" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M15" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N15" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O15" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P15" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L16" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N16" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O16" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P16" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L17" t="n">
-        <v>530.7276537125106</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279633</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N17" t="n">
-        <v>534.7029901624001</v>
+        <v>625.4051254607232</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P17" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R17" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239243</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K18" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M18" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N18" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O18" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P18" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N19" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O19" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P19" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K20" t="n">
-        <v>324.645146633947</v>
+        <v>324.6451466339468</v>
       </c>
       <c r="L20" t="n">
-        <v>857.6867329646391</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207958</v>
+        <v>971.1160373207955</v>
       </c>
       <c r="N20" t="n">
-        <v>972.0499145743842</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O20" t="n">
-        <v>751.4877009160666</v>
+        <v>751.4877009160693</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289183</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q20" t="n">
-        <v>240.1433454771049</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R20" t="n">
-        <v>53.4176149856001</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K21" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M21" t="n">
-        <v>438.4230857901371</v>
+        <v>513.0251837389416</v>
       </c>
       <c r="N21" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O21" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P21" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L22" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N22" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O22" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P22" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L23" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279633</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624001</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O23" t="n">
-        <v>545.2760123732755</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K24" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M24" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N24" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O24" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P24" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L25" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N25" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O25" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P25" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K26" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141886</v>
+        <v>699.8242688845861</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207958</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O26" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P26" t="n">
-        <v>460.1160124287254</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R26" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K27" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M27" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N27" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O27" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P27" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L28" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N28" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O28" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P28" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L29" t="n">
-        <v>530.7276537125106</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M29" t="n">
-        <v>521.6025038279633</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901624001</v>
+        <v>625.4051254607232</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q29" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K30" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M30" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N30" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O30" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P30" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q30" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L31" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N31" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O31" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P31" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L32" t="n">
-        <v>530.7276537125106</v>
+        <v>440.0255184141884</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279633</v>
+        <v>612.3046391262866</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624001</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R32" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239243</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K33" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M33" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N33" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O33" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P33" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L34" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N34" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O34" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P34" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.5124954532401</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L35" t="n">
-        <v>462.0143014824233</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901624001</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O35" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P35" t="n">
-        <v>706.3775386004008</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370096</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
-        <v>119.1340348585825</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K36" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M36" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N36" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O36" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P36" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L37" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N37" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O37" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P37" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L38" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279633</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R38" t="n">
-        <v>58.03834519793148</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K39" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M39" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N39" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O39" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P39" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L40" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N40" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O40" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P40" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L41" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125123</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279633</v>
+        <v>521.602503827963</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901623996</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004006</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R41" t="n">
-        <v>58.03834519793148</v>
+        <v>119.1340348585824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511958</v>
+        <v>164.239820351197</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M42" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N42" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O42" t="n">
-        <v>402.556638938372</v>
+        <v>402.5566389383717</v>
       </c>
       <c r="P42" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L43" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N43" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O43" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P43" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811662</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051118</v>
+        <v>648.7905592051115</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141886</v>
+        <v>857.6867329646388</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279633</v>
+        <v>526.2232340402963</v>
       </c>
       <c r="N44" t="n">
-        <v>625.405125460722</v>
+        <v>972.0499145743838</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254038</v>
+        <v>872.2350916254035</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004008</v>
+        <v>384.578830428918</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771047</v>
       </c>
       <c r="R44" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498559998</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239234</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1494122709661</v>
+        <v>232.149412270966</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264659</v>
+        <v>358.9439794264657</v>
       </c>
       <c r="M45" t="n">
-        <v>438.4230857901371</v>
+        <v>438.4230857901369</v>
       </c>
       <c r="N45" t="n">
-        <v>464.581027085978</v>
+        <v>464.5810270859778</v>
       </c>
       <c r="O45" t="n">
-        <v>402.556638938372</v>
+        <v>477.1587368871766</v>
       </c>
       <c r="P45" t="n">
-        <v>303.5588430275571</v>
+        <v>303.5588430275569</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.4976168106822</v>
+        <v>152.4976168106821</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806878</v>
+        <v>42.45049712806872</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715708</v>
+        <v>200.9075269715707</v>
       </c>
       <c r="L46" t="n">
-        <v>313.1797721627854</v>
+        <v>313.1797721627853</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332407</v>
+        <v>340.6982224332406</v>
       </c>
       <c r="N46" t="n">
-        <v>338.0866917389735</v>
+        <v>338.0866917389734</v>
       </c>
       <c r="O46" t="n">
-        <v>296.0997044604255</v>
+        <v>296.0997044604254</v>
       </c>
       <c r="P46" t="n">
-        <v>229.606185092853</v>
+        <v>229.6061850928529</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332486</v>
+        <v>74.68956239332478</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
